--- a/Simulator/output/Number Of Flows Study/Number Of Flows Study.xlsx
+++ b/Simulator/output/Number Of Flows Study/Number Of Flows Study.xlsx
@@ -220,34 +220,34 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>329627.21875</c:v>
+                  <c:v>1178506.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415875.9375</c:v>
+                  <c:v>1343588.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>553769.75</c:v>
+                  <c:v>1950347.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>733902.9375</c:v>
+                  <c:v>2646627.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>962503.625</c:v>
+                  <c:v>3849363.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1188604.625</c:v>
+                  <c:v>4176982.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1234033.375</c:v>
+                  <c:v>6622349.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1650059.375</c:v>
+                  <c:v>6695797.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1833978.5</c:v>
+                  <c:v>6928836.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1980101.75</c:v>
+                  <c:v>7530777.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,34 +308,34 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>236027.28125</c:v>
+                  <c:v>1255002.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>327742.6875</c:v>
+                  <c:v>1529195.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>385198.375</c:v>
+                  <c:v>1948881.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>462530.375</c:v>
+                  <c:v>2415783.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>540979.625</c:v>
+                  <c:v>3215966.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>581949.5625</c:v>
+                  <c:v>3180149.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>623383.375</c:v>
+                  <c:v>5547703.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>683043.375</c:v>
+                  <c:v>5657327.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>736876.375</c:v>
+                  <c:v>5935156.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>791767.5625</c:v>
+                  <c:v>5950957.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,34 +396,34 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>156507.28125</c:v>
+                  <c:v>781609.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231427.875</c:v>
+                  <c:v>944301.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277809.25</c:v>
+                  <c:v>1359841.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400694.71875</c:v>
+                  <c:v>2080895.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>585216.875</c:v>
+                  <c:v>3449578.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>701491.3125</c:v>
+                  <c:v>4100624.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>714917.9375</c:v>
+                  <c:v>4595212.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>756732.8125</c:v>
+                  <c:v>4554203.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>863396.6875</c:v>
+                  <c:v>5158786.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>986944.875</c:v>
+                  <c:v>6114975.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,34 +597,34 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.56813049316406</c:v>
+                  <c:v>80.04814147949219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.9715576171875</c:v>
+                  <c:v>134.45376586914062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.7779083251953</c:v>
+                  <c:v>158.25563049316406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.43109130859375</c:v>
+                  <c:v>171.9065704345703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.61361694335938</c:v>
+                  <c:v>181.08151245117188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199.5634307861328</c:v>
+                  <c:v>188.0366668701172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>204.38473510742188</c:v>
+                  <c:v>192.86178588867188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>207.99288940429688</c:v>
+                  <c:v>196.47280883789062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210.51451110839844</c:v>
+                  <c:v>199.725830078125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>212.9380645751953</c:v>
+                  <c:v>202.5345001220703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,34 +685,34 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.56813049316406</c:v>
+                  <c:v>80.04814147949219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.9715576171875</c:v>
+                  <c:v>134.45376586914062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.7779083251953</c:v>
+                  <c:v>158.25563049316406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.43109130859375</c:v>
+                  <c:v>171.9065704345703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.61361694335938</c:v>
+                  <c:v>181.08151245117188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197.4801025390625</c:v>
+                  <c:v>188.0366668701172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201.66151428222656</c:v>
+                  <c:v>192.86178588867188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205.42257690429688</c:v>
+                  <c:v>196.47280883789062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>207.0283966064453</c:v>
+                  <c:v>199.725830078125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.81930541992188</c:v>
+                  <c:v>202.5345001220703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,34 +773,34 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.56813049316406</c:v>
+                  <c:v>80.04814147949219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.9715576171875</c:v>
+                  <c:v>134.45376586914062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>169.7779083251953</c:v>
+                  <c:v>158.25563049316406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>181.04437255859375</c:v>
+                  <c:v>171.9065704345703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.197998046875</c:v>
+                  <c:v>181.08151245117188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193.4358367919922</c:v>
+                  <c:v>188.0366668701172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.4539337158203</c:v>
+                  <c:v>192.86178588867188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>201.09249877929688</c:v>
+                  <c:v>196.47280883789062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>203.91555786132812</c:v>
+                  <c:v>199.725830078125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.18649291992188</c:v>
+                  <c:v>202.5345001220703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,19 +1015,19 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>329627.21875</v>
+        <v>1178506.125</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>236027.28125</v>
+        <v>1255002.125</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>156507.28125</v>
+        <v>781609.875</v>
       </c>
     </row>
     <row r="4">
@@ -1035,19 +1035,19 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="n">
-        <v>415875.9375</v>
+        <v>1343588.625</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>327742.6875</v>
+        <v>1529195.25</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>231427.875</v>
+        <v>944301.125</v>
       </c>
     </row>
     <row r="5">
@@ -1055,19 +1055,19 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n">
-        <v>553769.75</v>
+        <v>1950347.0</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>385198.375</v>
+        <v>1948881.375</v>
       </c>
       <c r="E5" t="n">
         <v>3.0</v>
       </c>
       <c r="F5" t="n">
-        <v>277809.25</v>
+        <v>1359841.625</v>
       </c>
     </row>
     <row r="6">
@@ -1075,19 +1075,19 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="n">
-        <v>733902.9375</v>
+        <v>2646627.0</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>462530.375</v>
+        <v>2415783.25</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>400694.71875</v>
+        <v>2080895.0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,19 +1095,19 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="n">
-        <v>962503.625</v>
+        <v>3849363.5</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
       </c>
       <c r="D7" t="n">
-        <v>540979.625</v>
+        <v>3215966.75</v>
       </c>
       <c r="E7" t="n">
         <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>585216.875</v>
+        <v>3449578.75</v>
       </c>
     </row>
     <row r="8">
@@ -1115,19 +1115,19 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1188604.625</v>
+        <v>4176982.75</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>581949.5625</v>
+        <v>3180149.25</v>
       </c>
       <c r="E8" t="n">
         <v>6.0</v>
       </c>
       <c r="F8" t="n">
-        <v>701491.3125</v>
+        <v>4100624.0</v>
       </c>
     </row>
     <row r="9">
@@ -1135,19 +1135,19 @@
         <v>7.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1234033.375</v>
+        <v>6622349.5</v>
       </c>
       <c r="C9" t="n">
         <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>623383.375</v>
+        <v>5547703.5</v>
       </c>
       <c r="E9" t="n">
         <v>7.0</v>
       </c>
       <c r="F9" t="n">
-        <v>714917.9375</v>
+        <v>4595212.5</v>
       </c>
     </row>
     <row r="10">
@@ -1155,19 +1155,19 @@
         <v>8.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1650059.375</v>
+        <v>6695797.0</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
       </c>
       <c r="D10" t="n">
-        <v>683043.375</v>
+        <v>5657327.5</v>
       </c>
       <c r="E10" t="n">
         <v>8.0</v>
       </c>
       <c r="F10" t="n">
-        <v>756732.8125</v>
+        <v>4554203.5</v>
       </c>
     </row>
     <row r="11">
@@ -1175,19 +1175,19 @@
         <v>9.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1833978.5</v>
+        <v>6928836.0</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
       </c>
       <c r="D11" t="n">
-        <v>736876.375</v>
+        <v>5935156.5</v>
       </c>
       <c r="E11" t="n">
         <v>9.0</v>
       </c>
       <c r="F11" t="n">
-        <v>863396.6875</v>
+        <v>5158786.5</v>
       </c>
     </row>
     <row r="12">
@@ -1195,19 +1195,19 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1980101.75</v>
+        <v>7530777.0</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>791767.5625</v>
+        <v>5950957.5</v>
       </c>
       <c r="E12" t="n">
         <v>10.0</v>
       </c>
       <c r="F12" t="n">
-        <v>986944.875</v>
+        <v>6114975.0</v>
       </c>
     </row>
   </sheetData>
@@ -1273,19 +1273,19 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>91.56813049316406</v>
+        <v>80.04814147949219</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>91.56813049316406</v>
+        <v>80.04814147949219</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>91.56813049316406</v>
+        <v>80.04814147949219</v>
       </c>
     </row>
     <row r="4">
@@ -1293,19 +1293,19 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="n">
-        <v>145.9715576171875</v>
+        <v>134.45376586914062</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.9715576171875</v>
+        <v>134.45376586914062</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.9715576171875</v>
+        <v>134.45376586914062</v>
       </c>
     </row>
     <row r="5">
@@ -1313,19 +1313,19 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="n">
-        <v>169.7779083251953</v>
+        <v>158.25563049316406</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>169.7779083251953</v>
+        <v>158.25563049316406</v>
       </c>
       <c r="E5" t="n">
         <v>3.0</v>
       </c>
       <c r="F5" t="n">
-        <v>169.7779083251953</v>
+        <v>158.25563049316406</v>
       </c>
     </row>
     <row r="6">
@@ -1333,19 +1333,19 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="n">
-        <v>183.43109130859375</v>
+        <v>171.9065704345703</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>183.43109130859375</v>
+        <v>171.9065704345703</v>
       </c>
       <c r="E6" t="n">
         <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>181.04437255859375</v>
+        <v>171.9065704345703</v>
       </c>
     </row>
     <row r="7">
@@ -1353,19 +1353,19 @@
         <v>5.0</v>
       </c>
       <c r="B7" t="n">
-        <v>192.61361694335938</v>
+        <v>181.08151245117188</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
       </c>
       <c r="D7" t="n">
-        <v>192.61361694335938</v>
+        <v>181.08151245117188</v>
       </c>
       <c r="E7" t="n">
         <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>189.197998046875</v>
+        <v>181.08151245117188</v>
       </c>
     </row>
     <row r="8">
@@ -1373,19 +1373,19 @@
         <v>6.0</v>
       </c>
       <c r="B8" t="n">
-        <v>199.5634307861328</v>
+        <v>188.0366668701172</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>197.4801025390625</v>
+        <v>188.0366668701172</v>
       </c>
       <c r="E8" t="n">
         <v>6.0</v>
       </c>
       <c r="F8" t="n">
-        <v>193.4358367919922</v>
+        <v>188.0366668701172</v>
       </c>
     </row>
     <row r="9">
@@ -1393,19 +1393,19 @@
         <v>7.0</v>
       </c>
       <c r="B9" t="n">
-        <v>204.38473510742188</v>
+        <v>192.86178588867188</v>
       </c>
       <c r="C9" t="n">
         <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>201.66151428222656</v>
+        <v>192.86178588867188</v>
       </c>
       <c r="E9" t="n">
         <v>7.0</v>
       </c>
       <c r="F9" t="n">
-        <v>197.4539337158203</v>
+        <v>192.86178588867188</v>
       </c>
     </row>
     <row r="10">
@@ -1413,19 +1413,19 @@
         <v>8.0</v>
       </c>
       <c r="B10" t="n">
-        <v>207.99288940429688</v>
+        <v>196.47280883789062</v>
       </c>
       <c r="C10" t="n">
         <v>8.0</v>
       </c>
       <c r="D10" t="n">
-        <v>205.42257690429688</v>
+        <v>196.47280883789062</v>
       </c>
       <c r="E10" t="n">
         <v>8.0</v>
       </c>
       <c r="F10" t="n">
-        <v>201.09249877929688</v>
+        <v>196.47280883789062</v>
       </c>
     </row>
     <row r="11">
@@ -1433,19 +1433,19 @@
         <v>9.0</v>
       </c>
       <c r="B11" t="n">
-        <v>210.51451110839844</v>
+        <v>199.725830078125</v>
       </c>
       <c r="C11" t="n">
         <v>9.0</v>
       </c>
       <c r="D11" t="n">
-        <v>207.0283966064453</v>
+        <v>199.725830078125</v>
       </c>
       <c r="E11" t="n">
         <v>9.0</v>
       </c>
       <c r="F11" t="n">
-        <v>203.91555786132812</v>
+        <v>199.725830078125</v>
       </c>
     </row>
     <row r="12">
@@ -1453,19 +1453,19 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="n">
-        <v>212.9380645751953</v>
+        <v>202.5345001220703</v>
       </c>
       <c r="C12" t="n">
         <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>208.81930541992188</v>
+        <v>202.5345001220703</v>
       </c>
       <c r="E12" t="n">
         <v>10.0</v>
       </c>
       <c r="F12" t="n">
-        <v>206.18649291992188</v>
+        <v>202.5345001220703</v>
       </c>
     </row>
   </sheetData>

--- a/Simulator/output/Number Of Flows Study/Number Of Flows Study.xlsx
+++ b/Simulator/output/Number Of Flows Study/Number Of Flows Study.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
-    <t>Uniform Flow Sizes</t>
+    <t>Guassian Flow Sizes</t>
   </si>
   <si>
     <t xml:space="preserve">Number Of Flows </t>
@@ -24,10 +24,10 @@
     <t>Avg Flow Completion Time (ms)</t>
   </si>
   <si>
-    <t>Guassian Flow Sizes</t>
+    <t>Exponential Flow Sizes</t>
   </si>
   <si>
-    <t>Exponential Flow Sizes</t>
+    <t>Uniform Flow Sizes</t>
   </si>
   <si>
     <t>Avg Startup Delay (ms)</t>
@@ -170,7 +170,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Uniform Flow Sizes</c:v>
+            <c:v>Guassian Flow Sizes</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -178,76 +178,82 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AvgCompletionTime!$A$3:$A$12</c:f>
+              <c:f>AvgCompletionTime!$A$3:$A$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AvgCompletionTime!$B$3:$B$12</c:f>
+              <c:f>AvgCompletionTime!$B$3:$B$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1178506.125</c:v>
+                  <c:v>175361.59375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1343588.625</c:v>
+                  <c:v>284505.96875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950347.0</c:v>
+                  <c:v>399114.84375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2646627.0</c:v>
+                  <c:v>500847.46875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3849363.5</c:v>
+                  <c:v>619178.1875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4176982.75</c:v>
+                  <c:v>717503.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6622349.5</c:v>
+                  <c:v>844682.6875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6695797.0</c:v>
+                  <c:v>994139.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6928836.0</c:v>
+                  <c:v>1166236.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7530777.0</c:v>
+                  <c:v>1328505.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1438362.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -258,7 +264,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Guassian Flow Sizes</c:v>
+            <c:v>Exponential Flow Sizes</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -266,76 +272,82 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AvgCompletionTime!$C$3:$C$12</c:f>
+              <c:f>AvgCompletionTime!$C$3:$C$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AvgCompletionTime!$D$3:$D$12</c:f>
+              <c:f>AvgCompletionTime!$D$3:$D$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1255002.125</c:v>
+                  <c:v>156481.59375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1529195.25</c:v>
+                  <c:v>273494.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1948881.375</c:v>
+                  <c:v>572599.0625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2415783.25</c:v>
+                  <c:v>698677.3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3215966.75</c:v>
+                  <c:v>842730.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3180149.25</c:v>
+                  <c:v>1113464.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5547703.5</c:v>
+                  <c:v>1196049.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5657327.5</c:v>
+                  <c:v>1317071.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5935156.5</c:v>
+                  <c:v>1424630.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5950957.5</c:v>
+                  <c:v>1532797.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1724469.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,7 +358,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Exponential Flow Sizes</c:v>
+            <c:v>Uniform Flow Sizes</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -354,76 +366,82 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AvgCompletionTime!$E$3:$E$12</c:f>
+              <c:f>AvgCompletionTime!$E$3:$E$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AvgCompletionTime!$F$3:$F$12</c:f>
+              <c:f>AvgCompletionTime!$F$3:$F$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>781609.875</c:v>
+                  <c:v>164161.59375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>944301.125</c:v>
+                  <c:v>268257.65625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1359841.625</c:v>
+                  <c:v>380114.6875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2080895.0</c:v>
+                  <c:v>488595.03125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3449578.75</c:v>
+                  <c:v>606830.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4100624.0</c:v>
+                  <c:v>706286.9375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4595212.5</c:v>
+                  <c:v>833302.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4554203.5</c:v>
+                  <c:v>974997.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5158786.5</c:v>
+                  <c:v>1142135.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6114975.0</c:v>
+                  <c:v>1274426.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400235.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +565,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Uniform Flow Sizes</c:v>
+            <c:v>Guassian Flow Sizes</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -555,76 +573,82 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AvgStartupDelay!$A$3:$A$12</c:f>
+              <c:f>AvgStartupDelay!$A$3:$A$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AvgStartupDelay!$B$3:$B$12</c:f>
+              <c:f>AvgStartupDelay!$B$3:$B$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>80.04814147949219</c:v>
+                  <c:v>76.44488525390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.45376586914062</c:v>
+                  <c:v>151.65611267089844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.25563049316406</c:v>
+                  <c:v>170.29991149902344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.9065704345703</c:v>
+                  <c:v>157.41957092285156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.08151245117188</c:v>
+                  <c:v>166.1388397216797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.0366668701172</c:v>
+                  <c:v>172.79541015625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.86178588867188</c:v>
+                  <c:v>177.95669555664062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196.47280883789062</c:v>
+                  <c:v>182.47079467773438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.725830078125</c:v>
+                  <c:v>186.38600158691406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202.5345001220703</c:v>
+                  <c:v>189.37168884277344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>191.8065185546875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,7 +659,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Guassian Flow Sizes</c:v>
+            <c:v>Exponential Flow Sizes</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -643,76 +667,82 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AvgStartupDelay!$C$3:$C$12</c:f>
+              <c:f>AvgStartupDelay!$C$3:$C$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AvgStartupDelay!$D$3:$D$12</c:f>
+              <c:f>AvgStartupDelay!$D$3:$D$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>80.04814147949219</c:v>
+                  <c:v>76.44488525390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.45376586914062</c:v>
+                  <c:v>151.65611267089844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.25563049316406</c:v>
+                  <c:v>170.29991149902344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.9065704345703</c:v>
+                  <c:v>178.2588653564453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.08151245117188</c:v>
+                  <c:v>184.23605346679688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.0366668701172</c:v>
+                  <c:v>188.40904235839844</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.86178588867188</c:v>
+                  <c:v>192.29322814941406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196.47280883789062</c:v>
+                  <c:v>195.1749725341797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.725830078125</c:v>
+                  <c:v>197.59556579589844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202.5345001220703</c:v>
+                  <c:v>199.73023986816406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201.3690185546875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +753,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Exponential Flow Sizes</c:v>
+            <c:v>Uniform Flow Sizes</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
@@ -731,76 +761,82 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AvgStartupDelay!$E$3:$E$12</c:f>
+              <c:f>AvgStartupDelay!$E$3:$E$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AvgStartupDelay!$F$3:$F$12</c:f>
+              <c:f>AvgStartupDelay!$F$3:$F$13</c:f>
               <c:numCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>80.04814147949219</c:v>
+                  <c:v>76.44488525390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.45376586914062</c:v>
+                  <c:v>151.65611267089844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.25563049316406</c:v>
+                  <c:v>170.29991149902344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.9065704345703</c:v>
+                  <c:v>157.41957092285156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.08151245117188</c:v>
+                  <c:v>166.1388397216797</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.0366668701172</c:v>
+                  <c:v>171.9374542236328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.86178588867188</c:v>
+                  <c:v>177.23072814941406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>196.47280883789062</c:v>
+                  <c:v>181.8416290283203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.725830078125</c:v>
+                  <c:v>185.8308563232422</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202.5345001220703</c:v>
+                  <c:v>188.87496948242188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>191.66664123535156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1015,199 +1051,219 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1178506.125</v>
+        <v>175361.59375</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1255002.125</v>
+        <v>156481.59375</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>781609.875</v>
+        <v>164161.59375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1343588.625</v>
+        <v>284505.96875</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1529195.25</v>
+        <v>273494.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>944301.125</v>
+        <v>268257.65625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1950347.0</v>
+        <v>399114.84375</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1948881.375</v>
+        <v>572599.0625</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1359841.625</v>
+        <v>380114.6875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2646627.0</v>
+        <v>500847.46875</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2415783.25</v>
+        <v>698677.3125</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F6" t="n">
-        <v>2080895.0</v>
+        <v>488595.03125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3849363.5</v>
+        <v>619178.1875</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3215966.75</v>
+        <v>842730.25</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3449578.75</v>
+        <v>606830.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B8" t="n">
-        <v>4176982.75</v>
+        <v>717503.875</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3180149.25</v>
+        <v>1113464.5</v>
       </c>
       <c r="E8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="F8" t="n">
-        <v>4100624.0</v>
+        <v>706286.9375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="B9" t="n">
-        <v>6622349.5</v>
+        <v>844682.6875</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5547703.5</v>
+        <v>1196049.125</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F9" t="n">
-        <v>4595212.5</v>
+        <v>833302.875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="B10" t="n">
-        <v>6695797.0</v>
+        <v>994139.3125</v>
       </c>
       <c r="C10" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5657327.5</v>
+        <v>1317071.5</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" t="n">
-        <v>4554203.5</v>
+        <v>974997.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="B11" t="n">
-        <v>6928836.0</v>
+        <v>1166236.0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="D11" t="n">
-        <v>5935156.5</v>
+        <v>1424630.5</v>
       </c>
       <c r="E11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="F11" t="n">
-        <v>5158786.5</v>
+        <v>1142135.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="B12" t="n">
-        <v>7530777.0</v>
+        <v>1328505.25</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5950957.5</v>
+        <v>1532797.625</v>
       </c>
       <c r="E12" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
-        <v>6114975.0</v>
+        <v>1274426.375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1438362.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1724469.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1400235.25</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1273,199 +1329,219 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="n">
-        <v>80.04814147949219</v>
+        <v>76.44488525390625</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.04814147949219</v>
+        <v>76.44488525390625</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>80.04814147949219</v>
+        <v>76.44488525390625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>134.45376586914062</v>
+        <v>151.65611267089844</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>134.45376586914062</v>
+        <v>151.65611267089844</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.45376586914062</v>
+        <v>151.65611267089844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="n">
-        <v>158.25563049316406</v>
+        <v>170.29991149902344</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>158.25563049316406</v>
+        <v>170.29991149902344</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>158.25563049316406</v>
+        <v>170.29991149902344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B6" t="n">
-        <v>171.9065704345703</v>
+        <v>157.41957092285156</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>171.9065704345703</v>
+        <v>178.2588653564453</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F6" t="n">
-        <v>171.9065704345703</v>
+        <v>157.41957092285156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B7" t="n">
-        <v>181.08151245117188</v>
+        <v>166.1388397216797</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D7" t="n">
-        <v>181.08151245117188</v>
+        <v>184.23605346679688</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" t="n">
-        <v>181.08151245117188</v>
+        <v>166.1388397216797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B8" t="n">
-        <v>188.0366668701172</v>
+        <v>172.79541015625</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>188.0366668701172</v>
+        <v>188.40904235839844</v>
       </c>
       <c r="E8" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="F8" t="n">
-        <v>188.0366668701172</v>
+        <v>171.9374542236328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="B9" t="n">
-        <v>192.86178588867188</v>
+        <v>177.95669555664062</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" t="n">
-        <v>192.86178588867188</v>
+        <v>192.29322814941406</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="F9" t="n">
-        <v>192.86178588867188</v>
+        <v>177.23072814941406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="B10" t="n">
-        <v>196.47280883789062</v>
+        <v>182.47079467773438</v>
       </c>
       <c r="C10" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="D10" t="n">
-        <v>196.47280883789062</v>
+        <v>195.1749725341797</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" t="n">
-        <v>196.47280883789062</v>
+        <v>181.8416290283203</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="B11" t="n">
-        <v>199.725830078125</v>
+        <v>186.38600158691406</v>
       </c>
       <c r="C11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="D11" t="n">
-        <v>199.725830078125</v>
+        <v>197.59556579589844</v>
       </c>
       <c r="E11" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="F11" t="n">
-        <v>199.725830078125</v>
+        <v>185.8308563232422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="B12" t="n">
-        <v>202.5345001220703</v>
+        <v>189.37168884277344</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="D12" t="n">
-        <v>202.5345001220703</v>
+        <v>199.73023986816406</v>
       </c>
       <c r="E12" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
-        <v>202.5345001220703</v>
+        <v>188.87496948242188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>191.8065185546875</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>201.3690185546875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>191.66664123535156</v>
       </c>
     </row>
   </sheetData>
